--- a/EndothelialCluster16.xlsx
+++ b/EndothelialCluster16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF173D5A-E16C-40C2-8394-1C4F64E72178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A885067-4BDF-4054-BA0F-B29A1439683F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
-    <t>Gene Name</t>
-  </si>
-  <si>
-    <t>Gene Type</t>
-  </si>
-  <si>
-    <t>Max Expression</t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>Ncor1</t>
   </si>
   <si>
@@ -193,6 +178,21 @@
   </si>
   <si>
     <t>Ldlrad4</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>MaxExpression</t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,27 +527,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>587</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>498</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>430</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>923</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>398</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>400</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>503</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>389</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>488</v>
@@ -697,10 +697,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>697</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>385</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>416</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>384</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>808</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>567</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>410</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>532</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>524</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>676</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>545</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>577</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>444</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>392</v>
@@ -935,10 +935,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>480</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>433</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>403</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>544</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>400</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>936</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>477</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>389</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1220</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>893</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1980</v>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>787</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>556</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>481</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>722</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>538</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>645</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>4590</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>969</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>2360</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1410</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1860</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1730</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>2600</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>702</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1370</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1480</v>
